--- a/Очищенные_данные.xlsx
+++ b/Очищенные_данные.xlsx
@@ -1260,7 +1260,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -9797,10 +9797,8 @@
       <c r="E73" t="n">
         <v>4</v>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>2, 4</t>
-        </is>
+      <c r="F73" t="n">
+        <v>1</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -9926,7 +9924,7 @@
         <v>3</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -10204,10 +10202,8 @@
       <c r="E76" t="n">
         <v>4</v>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>2, 3, 6, 12</t>
-        </is>
+      <c r="F76" t="n">
+        <v>1</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -10521,10 +10517,8 @@
       <c r="E78" t="n">
         <v>5</v>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>2, 3, 12</t>
-        </is>
+      <c r="F78" t="n">
+        <v>1</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -10676,10 +10670,8 @@
       <c r="E79" t="n">
         <v>4</v>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>2, 3, 4</t>
-        </is>
+      <c r="F79" t="n">
+        <v>1</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -10828,10 +10820,8 @@
       <c r="E80" t="n">
         <v>4</v>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>2, 7, 12</t>
-        </is>
+      <c r="F80" t="n">
+        <v>1</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -10983,7 +10973,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -11132,10 +11122,8 @@
       <c r="E82" t="n">
         <v>3</v>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>2, 5, 11</t>
-        </is>
+      <c r="F82" t="n">
+        <v>1</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -11291,7 +11279,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -11444,7 +11432,7 @@
         <v>4</v>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -11599,10 +11587,8 @@
       <c r="E85" t="n">
         <v>5</v>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>2, 4</t>
-        </is>
+      <c r="F85" t="n">
+        <v>1</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -11733,10 +11719,8 @@
       <c r="E86" t="n">
         <v>3</v>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>2, 3, 4</t>
-        </is>
+      <c r="F86" t="n">
+        <v>1</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -11891,10 +11875,8 @@
       <c r="E87" t="n">
         <v>4</v>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>2, 11</t>
-        </is>
+      <c r="F87" t="n">
+        <v>1</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -12047,7 +12029,7 @@
         <v>5</v>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -12176,7 +12158,7 @@
         <v>5</v>
       </c>
       <c r="F89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -12328,10 +12310,8 @@
       <c r="E90" t="n">
         <v>5</v>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>2, 12, 11</t>
-        </is>
+      <c r="F90" t="n">
+        <v>1</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -12400,7 +12380,7 @@
         <v>5</v>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -12546,10 +12526,8 @@
       <c r="E92" t="n">
         <v>4</v>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>8, 9</t>
-        </is>
+      <c r="F92" t="n">
+        <v>1</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -12701,10 +12679,8 @@
       <c r="E93" t="n">
         <v>4</v>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>2, 8</t>
-        </is>
+      <c r="F93" t="n">
+        <v>1</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -13133,7 +13109,7 @@
         <v>2</v>
       </c>
       <c r="F96" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -13286,7 +13262,7 @@
         <v>4</v>
       </c>
       <c r="F97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -14167,10 +14143,8 @@
       <c r="E103" t="n">
         <v>5</v>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>1, 2</t>
-        </is>
+      <c r="F103" t="n">
+        <v>1</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -14325,10 +14299,8 @@
       <c r="E104" t="n">
         <v>1</v>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>2, 3</t>
-        </is>
+      <c r="F104" t="n">
+        <v>1</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -14447,10 +14419,8 @@
       <c r="E105" t="n">
         <v>5</v>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>1, 2, 11</t>
-        </is>
+      <c r="F105" t="n">
+        <v>1</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -14591,7 +14561,7 @@
         <v>3</v>
       </c>
       <c r="F106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -14743,10 +14713,8 @@
       <c r="E107" t="n">
         <v>5</v>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>2, 5, 8, 11</t>
-        </is>
+      <c r="F107" t="n">
+        <v>1</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -14901,10 +14869,8 @@
       <c r="E108" t="n">
         <v>4</v>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>2, 4, 11</t>
-        </is>
+      <c r="F108" t="n">
+        <v>1</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -15041,10 +15007,8 @@
       <c r="E109" t="n">
         <v>4</v>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>2, 3, 5, 11</t>
-        </is>
+      <c r="F109" t="n">
+        <v>1</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -15166,10 +15130,8 @@
       <c r="E110" t="n">
         <v>3</v>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>2, 12</t>
-        </is>
+      <c r="F110" t="n">
+        <v>1</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -15321,10 +15283,8 @@
       <c r="E111" t="n">
         <v>4</v>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>2, 5, 11</t>
-        </is>
+      <c r="F111" t="n">
+        <v>1</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -15476,10 +15436,8 @@
       <c r="E112" t="n">
         <v>5</v>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>2, 3, 11</t>
-        </is>
+      <c r="F112" t="n">
+        <v>1</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -15638,7 +15596,7 @@
         <v>4</v>
       </c>
       <c r="F113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -15787,10 +15745,8 @@
       <c r="E114" t="n">
         <v>5</v>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>2, 5</t>
-        </is>
+      <c r="F114" t="n">
+        <v>1</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -15942,10 +15898,8 @@
       <c r="E115" t="n">
         <v>4</v>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>2, 11</t>
-        </is>
+      <c r="F115" t="n">
+        <v>1</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -16043,10 +15997,8 @@
       <c r="E116" t="n">
         <v>5</v>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>2, 11</t>
-        </is>
+      <c r="F116" t="n">
+        <v>1</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -16201,10 +16153,8 @@
       <c r="E117" t="n">
         <v>4</v>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>1, 2, 11</t>
-        </is>
+      <c r="F117" t="n">
+        <v>1</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -16362,10 +16312,8 @@
       <c r="E118" t="n">
         <v>3</v>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>2, 11</t>
-        </is>
+      <c r="F118" t="n">
+        <v>1</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -16430,10 +16378,8 @@
       <c r="E119" t="n">
         <v>4</v>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>1, 2, 5, 11</t>
-        </is>
+      <c r="F119" t="n">
+        <v>1</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -16570,10 +16516,8 @@
       <c r="E120" t="n">
         <v>1</v>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>5, 11</t>
-        </is>
+      <c r="F120" t="n">
+        <v>1</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -16725,10 +16669,8 @@
       <c r="E121" t="n">
         <v>4</v>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>2, 12, 11</t>
-        </is>
+      <c r="F121" t="n">
+        <v>1</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -16853,10 +16795,8 @@
       <c r="E122" t="n">
         <v>4</v>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>2, 3, 11</t>
-        </is>
+      <c r="F122" t="n">
+        <v>1</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -17164,10 +17104,8 @@
       <c r="E124" t="n">
         <v>4</v>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>2, 4, 8</t>
-        </is>
+      <c r="F124" t="n">
+        <v>1</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -17322,10 +17260,8 @@
       <c r="E125" t="n">
         <v>3</v>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>1, 2</t>
-        </is>
+      <c r="F125" t="n">
+        <v>1</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -17480,10 +17416,8 @@
       <c r="E126" t="n">
         <v>4</v>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>2, 5, 11</t>
-        </is>
+      <c r="F126" t="n">
+        <v>1</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -17642,7 +17576,7 @@
         <v>4</v>
       </c>
       <c r="F127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -17794,10 +17728,8 @@
       <c r="E128" t="n">
         <v>1</v>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>2, 5, 11, 12</t>
-        </is>
+      <c r="F128" t="n">
+        <v>1</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
